--- a/PCB/SPARC Capstone Preliminary BOM.xlsx
+++ b/PCB/SPARC Capstone Preliminary BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr_mo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr_mo\Desktop\School\4th Year\Winter Term\ECE492\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AA38DC-D309-4BD0-A120-2BCFA65FB974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BD81D9-2160-422B-877C-A2EEE5FDA35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2490" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,13 +265,13 @@
     <t>$42.39 From Digikey</t>
   </si>
   <si>
-    <t>JP2-JP3</t>
-  </si>
-  <si>
     <t>2057-PH2-06-UA-ND</t>
   </si>
   <si>
     <t>PH2-06-UA</t>
+  </si>
+  <si>
+    <t>JP2-JP5</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -660,13 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +948,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,14 +1018,14 @@
         <v>12</v>
       </c>
       <c r="H3" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3" s="8">
-        <v>0.73</v>
+        <v>0.745</v>
       </c>
       <c r="J3" s="8">
         <f>I3*H3</f>
-        <v>4.38</v>
+        <v>7.45</v>
       </c>
       <c r="K3" s="9"/>
     </row>
@@ -1042,7 +1039,7 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="26" t="s">
@@ -1052,14 +1049,14 @@
         <v>16</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:J10" si="0">I4*H4</f>
-        <v>5.52</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -1083,14 +1080,14 @@
         <v>21</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>0.14000000000000001</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -1137,7 +1134,7 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>732511150</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -1227,31 +1224,31 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="37">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
       </c>
       <c r="I10" s="2">
         <v>0.19</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="K10" s="24"/>
     </row>
@@ -1275,14 +1272,14 @@
         <v>34</v>
       </c>
       <c r="H11" s="1">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3">
-        <v>0.20100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J11" s="2">
         <f>I11*H11</f>
-        <v>12.462000000000002</v>
+        <v>8</v>
       </c>
       <c r="K11" s="5"/>
     </row>
@@ -1306,14 +1303,14 @@
         <v>54</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
         <v>0.72</v>
       </c>
       <c r="J12" s="2">
         <f>I12*H12</f>
-        <v>2.16</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="K12" s="24"/>
     </row>
@@ -1339,7 +1336,7 @@
       <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="36">
         <v>40.270000000000003</v>
       </c>
       <c r="J13" s="2">
@@ -1375,7 +1372,7 @@
       </c>
       <c r="J15" s="20">
         <f>SUM(J3:J13)</f>
-        <v>119.52200000000001</v>
+        <v>125.22000000000001</v>
       </c>
       <c r="K15" s="12"/>
     </row>

--- a/PCB/SPARC Capstone Preliminary BOM.xlsx
+++ b/PCB/SPARC Capstone Preliminary BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr_mo\Desktop\School\4th Year\Winter Term\ECE492\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BD81D9-2160-422B-877C-A2EEE5FDA35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF0E0F-FBAE-4897-B1A7-B2450EC7AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PCB/SPARC Capstone Preliminary BOM.xlsx
+++ b/PCB/SPARC Capstone Preliminary BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr_mo\Desktop\School\4th Year\Winter Term\ECE492\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF0E0F-FBAE-4897-B1A7-B2450EC7AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBCCDED-2DE3-4730-B1B9-A27711AE5AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2490" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PCB/SPARC Capstone Preliminary BOM.xlsx
+++ b/PCB/SPARC Capstone Preliminary BOM.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dr_mo\Desktop\School\4th Year\Winter Term\ECE492\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBCCDED-2DE3-4730-B1B9-A27711AE5AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E672EB4B-80BD-498F-84D9-18FD9C802D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2490" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$J$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Reference</t>
   </si>
@@ -202,18 +205,6 @@
     <t>J4, J5, JP1</t>
   </si>
   <si>
-    <t>JP1B</t>
-  </si>
-  <si>
-    <t>Harwin</t>
-  </si>
-  <si>
-    <t>M7686-05</t>
-  </si>
-  <si>
-    <t>952-2023-ND</t>
-  </si>
-  <si>
     <t>Mouser P/N</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>538-73251-1150</t>
   </si>
   <si>
-    <t>855-M7686-05</t>
-  </si>
-  <si>
     <t>755-ESR03EZPF7502</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
   </si>
   <si>
     <t>Mouser P/N is a different, compatable part</t>
-  </si>
-  <si>
-    <t>Jumper</t>
   </si>
   <si>
     <t>C7, C9, C11, C12</t>
@@ -945,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B2" sqref="B2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>10</v>
@@ -1012,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>12</v>
@@ -1031,7 +1016,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -1043,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1062,7 +1047,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -1074,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -1105,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -1114,11 +1099,11 @@
         <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>40</v>
@@ -1138,7 +1123,7 @@
         <v>732511150</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
@@ -1147,11 +1132,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>6.28</v>
+        <v>6.41</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>12.56</v>
+        <v>12.82</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>40</v>
@@ -1171,7 +1156,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>47</v>
@@ -1187,7 +1172,7 @@
         <v>0.38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1204,7 +1189,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>30</v>
@@ -1213,19 +1198,19 @@
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0.42000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>48</v>
@@ -1234,11 +1219,11 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -1254,7 +1239,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1266,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -1284,100 +1269,69 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>51</v>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.72</v>
+        <v>2</v>
+      </c>
+      <c r="I12" s="36">
+        <v>40.270000000000003</v>
       </c>
       <c r="J12" s="2">
         <f>I12*H12</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="K12" s="24"/>
+        <v>80.540000000000006</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="36">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="J13" s="2">
-        <f>I13*H13</f>
-        <v>80.540000000000006</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>71</v>
-      </c>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="20">
-        <f>SUM(J3:J13)</f>
-        <v>125.22000000000001</v>
-      </c>
-      <c r="K15" s="12"/>
+      <c r="J14" s="20">
+        <f>SUM(J3:J12)</f>
+        <v>121.93</v>
+      </c>
+      <c r="K14" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>